--- a/LabFizyka/cw3 cw0 cw 4, cw 5, cw1, cw2fizyka.xlsx
+++ b/LabFizyka/cw3 cw0 cw 4, cw 5, cw1, cw2fizyka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SzaVii\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmrm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E2DDAC-E007-4184-8B42-7D3726A24FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F4602B-6048-4EBC-A179-DC85DC00CC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{07698564-2BCD-4C08-A4D3-7614F053D8E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{07698564-2BCD-4C08-A4D3-7614F053D8E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Cw0" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="139">
   <si>
     <t>ck</t>
   </si>
@@ -443,6 +443,21 @@
   </si>
   <si>
     <t>(n)</t>
+  </si>
+  <si>
+    <t>bi-`b</t>
+  </si>
+  <si>
+    <t>(bi-`b)^2</t>
+  </si>
+  <si>
+    <t>bi2-`b2</t>
+  </si>
+  <si>
+    <t>(bi2-`b2)^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -635,6 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,7 +669,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -2711,9 +2726,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -2730,7 +2745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2756,7 +2771,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2780,7 +2795,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -2800,7 +2815,7 @@
         <v>2.5600000000000005</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -2820,7 +2835,7 @@
         <v>0.3600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
@@ -2840,7 +2855,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>6</v>
       </c>
@@ -2860,7 +2875,7 @@
         <v>6.7600000000000007</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>7</v>
       </c>
@@ -2880,7 +2895,7 @@
         <v>1.9599999999999997</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>8</v>
       </c>
@@ -2903,7 +2918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>9</v>
       </c>
@@ -2923,7 +2938,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>10</v>
       </c>
@@ -2943,7 +2958,7 @@
         <v>1.9599999999999997</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>27</v>
       </c>
@@ -2952,7 +2967,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>28</v>
       </c>
@@ -2965,17 +2980,17 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>30</v>
       </c>
@@ -2983,7 +2998,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>36</v>
       </c>
@@ -2995,7 +3010,7 @@
         <v>2.3904999999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -3003,7 +3018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -3012,12 +3027,12 @@
         <v>1.1259999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>32</v>
       </c>
@@ -3030,7 +3045,7 @@
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -3039,7 +3054,7 @@
         <v>3.4641016151377544</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E30">
         <f>0.1/E29</f>
         <v>2.8867513459481291E-2</v>
@@ -3062,12 +3077,12 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>0</v>
       </c>
@@ -3099,7 +3114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>8</v>
       </c>
@@ -3134,7 +3149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>900</v>
       </c>
@@ -3191,7 +3206,7 @@
         <v>30555608.581911124</v>
       </c>
     </row>
-    <row r="8" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>900</v>
       </c>
@@ -3248,7 +3263,7 @@
         <v>4825320.2845155653</v>
       </c>
     </row>
-    <row r="9" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>900</v>
       </c>
@@ -3305,7 +3320,7 @@
         <v>21213.041002265622</v>
       </c>
     </row>
-    <row r="10" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>900</v>
       </c>
@@ -3362,7 +3377,7 @@
         <v>758298.47209725645</v>
       </c>
     </row>
-    <row r="11" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>900</v>
       </c>
@@ -3419,7 +3434,7 @@
         <v>9513815.9775250498</v>
       </c>
     </row>
-    <row r="12" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E12">
         <v>900</v>
       </c>
@@ -3476,7 +3491,7 @@
         <v>1569936.5539540569</v>
       </c>
     </row>
-    <row r="13" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E13">
         <v>900</v>
       </c>
@@ -3533,18 +3548,18 @@
         <v>7085174.1699057044</v>
       </c>
     </row>
-    <row r="28" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:25" x14ac:dyDescent="0.3">
       <c r="Y28">
         <f>(N28-$E$33)^2</f>
         <v>30098144.025008153</v>
       </c>
     </row>
-    <row r="29" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:25" x14ac:dyDescent="0.3">
       <c r="L29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:25" x14ac:dyDescent="0.3">
       <c r="L30">
         <v>7</v>
       </c>
@@ -3556,13 +3571,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:25" x14ac:dyDescent="0.3">
       <c r="Y31">
         <f>SUM(Y7:Y28)</f>
         <v>84427511.105919182</v>
       </c>
     </row>
-    <row r="32" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>16</v>
       </c>
@@ -3574,7 +3589,7 @@
         <v>2010178.8358552186</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E33">
         <f>AVERAGE(N7:N28)</f>
         <v>5486.1775422426999</v>
@@ -3597,17 +3612,17 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
@@ -3636,11 +3651,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="14">
         <v>0.4</v>
       </c>
       <c r="E5" s="1">
@@ -3670,11 +3685,11 @@
         <v>100.0000000009436</v>
       </c>
     </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="1">
         <v>1.4850000000000001</v>
       </c>
@@ -3698,11 +3713,11 @@
         <v>99.999999999167812</v>
       </c>
     </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="1">
         <v>1.49</v>
       </c>
@@ -3726,11 +3741,11 @@
         <v>100.0000000009436</v>
       </c>
     </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="1">
         <v>1.4950000000000001</v>
       </c>
@@ -3754,21 +3769,21 @@
         <v>99.999999999167812</v>
       </c>
     </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C9" s="16" t="s">
+    <row r="9" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <v>0.42</v>
       </c>
       <c r="E10" s="1">
@@ -3794,11 +3809,11 @@
         <v>100.00000000087539</v>
       </c>
     </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="1">
         <v>1.4279999999999999</v>
       </c>
@@ -3822,11 +3837,11 @@
         <v>99.999999999010925</v>
       </c>
     </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C12" s="2">
         <v>7</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="1">
         <v>1.4330000000000001</v>
       </c>
@@ -3850,11 +3865,11 @@
         <v>100.00000000087539</v>
       </c>
     </row>
-    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
         <v>8</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="1">
         <v>1.4379999999999999</v>
       </c>
@@ -3878,11 +3893,11 @@
         <v>99.999999999010925</v>
       </c>
     </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C14" s="2">
         <v>9</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="14">
         <v>0.44</v>
       </c>
       <c r="E14" s="1">
@@ -3908,11 +3923,11 @@
         <v>1877.7777777803674</v>
       </c>
     </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C15" s="2">
         <v>10</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="1">
         <v>1.2734000000000001</v>
       </c>
@@ -3936,11 +3951,11 @@
         <v>1877.7777777744902</v>
       </c>
     </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C16" s="2">
         <v>11</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="1">
         <v>1.2784</v>
       </c>
@@ -3964,11 +3979,11 @@
         <v>1877.7777777803674</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C17" s="2">
         <v>12</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="1">
         <v>1.2834000000000001</v>
       </c>
@@ -3992,11 +4007,11 @@
         <v>1877.7777777744902</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C18" s="2">
         <v>13</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="14">
         <v>0.46</v>
       </c>
       <c r="E18" s="1">
@@ -4022,11 +4037,11 @@
         <v>711.11111111277046</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C19" s="2">
         <v>14</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="1">
         <v>1.4734</v>
       </c>
@@ -4050,11 +4065,11 @@
         <v>711.11111110898992</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C20" s="2">
         <v>15</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="1">
         <v>1.4783999999999999</v>
       </c>
@@ -4078,11 +4093,11 @@
         <v>711.11111111277046</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C21" s="2">
         <v>16</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="1">
         <v>1.4834000000000001</v>
       </c>
@@ -4106,11 +4121,11 @@
         <v>711.11111110898992</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C22" s="2">
         <v>17</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="14">
         <v>0.48</v>
       </c>
       <c r="E22" s="1">
@@ -4136,11 +4151,11 @@
         <v>4899.9999999921374</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C23" s="2">
         <v>18</v>
       </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="1">
         <v>1.4530000000000001</v>
       </c>
@@ -4164,11 +4179,11 @@
         <v>4900.0000000070586</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C24" s="2">
         <v>19</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="1">
         <v>1.458</v>
       </c>
@@ -4192,11 +4207,11 @@
         <v>4899.9999999921374</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="C25" s="2">
         <v>20</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="1">
         <v>1.4630000000000001</v>
       </c>
@@ -4220,7 +4235,7 @@
         <v>4900.0000000070586</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="U27" t="s">
         <v>52</v>
       </c>
@@ -4228,7 +4243,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="U28" t="s">
         <v>53</v>
       </c>
@@ -4237,7 +4252,7 @@
         <v>30755.555555551622</v>
       </c>
     </row>
-    <row r="29" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:22" ht="18" x14ac:dyDescent="0.35">
       <c r="E29" s="3" t="s">
         <v>48</v>
       </c>
@@ -4246,18 +4261,18 @@
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E30">
         <f>SQRT((V28/U29))</f>
         <v>8.9964255409917957</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>0.95</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -4276,13 +4291,13 @@
         <v>18.829518657295829</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C37">
         <f>B33*E30</f>
         <v>18.829518657295829</v>
       </c>
     </row>
-    <row r="86" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F86" s="1">
         <v>1.472</v>
       </c>
@@ -4319,22 +4334,22 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:22" x14ac:dyDescent="0.3">
       <c r="V2" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C5" s="6" t="s">
         <v>58</v>
       </c>
@@ -4357,7 +4372,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:22" ht="18" x14ac:dyDescent="0.35">
       <c r="C6" s="5" t="s">
         <v>64</v>
       </c>
@@ -4393,7 +4408,7 @@
         <v>0.11219445521836882</v>
       </c>
     </row>
-    <row r="7" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C7" s="5" t="s">
         <v>65</v>
       </c>
@@ -4415,10 +4430,10 @@
       </c>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C9" s="6" t="s">
         <v>66</v>
       </c>
@@ -4439,7 +4454,7 @@
       </c>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:22" ht="18" x14ac:dyDescent="0.35">
       <c r="C10" s="5" t="s">
         <v>64</v>
       </c>
@@ -4472,7 +4487,7 @@
         <v>0.205053014757067</v>
       </c>
     </row>
-    <row r="11" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>65</v>
       </c>
@@ -4491,10 +4506,10 @@
       </c>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C13" s="6" t="s">
         <v>69</v>
       </c>
@@ -4509,7 +4524,7 @@
       </c>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:22" ht="18" x14ac:dyDescent="0.35">
       <c r="C14" s="5" t="s">
         <v>64</v>
       </c>
@@ -4535,7 +4550,7 @@
         <v>0.15146666666666669</v>
       </c>
     </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C15" s="5" t="s">
         <v>65</v>
       </c>
@@ -4546,7 +4561,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>75</v>
       </c>
@@ -4554,7 +4569,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23">
         <f xml:space="preserve"> H6 * ((E7/E6)+(F7/F6)+(G7/G6))</f>
         <v>5.1004999999999995E-2</v>
@@ -4564,7 +4579,7 @@
         <v>0.14314238715000002</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>72</v>
       </c>
@@ -4575,7 +4590,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28">
         <f xml:space="preserve"> J6 * ((D7/D6) + (H7/H6))</f>
         <v>0.11219445521836882</v>
@@ -4605,24 +4620,24 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="15" max="15" width="17.44140625" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:33" x14ac:dyDescent="0.3">
       <c r="AG2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D6" s="1" t="s">
         <v>83</v>
       </c>
@@ -4648,7 +4663,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D7" s="9">
         <v>4.99</v>
       </c>
@@ -4684,7 +4699,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D8" s="9">
         <v>5.58</v>
       </c>
@@ -4720,13 +4735,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:33" x14ac:dyDescent="0.3">
       <c r="R9">
         <f>(D8*E8)/(D8+E8)</f>
         <v>1.3135708413263907</v>
       </c>
     </row>
-    <row r="13" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D13" s="1" t="s">
         <v>89</v>
       </c>
@@ -4734,7 +4749,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
         <v>90</v>
       </c>
@@ -4742,7 +4757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="4:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="1" t="s">
         <v>86</v>
       </c>
@@ -4756,7 +4771,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="1">
         <v>1</v>
       </c>
@@ -4778,7 +4793,7 @@
         <v>1.6100000000000001E-4</v>
       </c>
     </row>
-    <row r="18" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="1">
         <v>2</v>
       </c>
@@ -4793,7 +4808,7 @@
         <v>17209.302325581397</v>
       </c>
     </row>
-    <row r="19" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="1">
         <v>3</v>
       </c>
@@ -4808,7 +4823,7 @@
         <v>17084.870848708488</v>
       </c>
     </row>
-    <row r="20" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="1">
         <v>4</v>
       </c>
@@ -4823,7 +4838,7 @@
         <v>17289.719626168226</v>
       </c>
     </row>
-    <row r="21" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="1">
         <v>5</v>
       </c>
@@ -4838,7 +4853,7 @@
         <v>17260.638297872341</v>
       </c>
     </row>
-    <row r="22" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="1">
         <v>6</v>
       </c>
@@ -4853,7 +4868,7 @@
         <v>17435.294117647059</v>
       </c>
     </row>
-    <row r="23" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="1">
         <v>7</v>
       </c>
@@ -4868,7 +4883,7 @@
         <v>17282.157676348546</v>
       </c>
     </row>
-    <row r="24" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="1">
         <v>8</v>
       </c>
@@ -4883,7 +4898,7 @@
         <v>17276.119402985074</v>
       </c>
     </row>
-    <row r="25" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="1">
         <v>9</v>
       </c>
@@ -4898,7 +4913,7 @@
         <v>17234.401349072516</v>
       </c>
     </row>
-    <row r="26" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="1">
         <v>10</v>
       </c>
@@ -4913,7 +4928,7 @@
         <v>17293.93468118196</v>
       </c>
     </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D32" s="1" t="s">
         <v>93</v>
       </c>
@@ -4922,7 +4937,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>95</v>
       </c>
@@ -4945,7 +4960,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>97</v>
       </c>
@@ -4970,7 +4985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>98</v>
       </c>
@@ -5002,19 +5017,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2FB2B5-01A0-4EB1-9F5D-8D6D788ED658}">
-  <dimension ref="C3:Z34"/>
+  <dimension ref="C2:AF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="I6" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="AB2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>103</v>
       </c>
@@ -5055,8 +5075,28 @@
       <c r="X3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="AB3">
+        <f>M6-$S$6</f>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AE3" si="0">N6-$S$6</f>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f>O6-$S$6</f>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <f>Q6-$S$6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>104</v>
       </c>
@@ -5087,8 +5127,11 @@
       <c r="Z4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="5" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="AB4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>105</v>
       </c>
@@ -5120,8 +5163,28 @@
       <c r="Z5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="6" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="AB5">
+        <f>AB3*AB3</f>
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" ref="AC5:AF5" si="1">AC3*AC3</f>
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>106</v>
       </c>
@@ -5130,19 +5193,19 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:H6" si="0">E5-E4</f>
+        <f t="shared" ref="E6:H6" si="2">E5-E4</f>
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -5153,30 +5216,33 @@
         <v>0</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" ref="N6:Q6" si="1">N4-N5</f>
+        <f t="shared" ref="N6:Q6" si="3">N4-N5</f>
         <v>0</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="13">
         <f>(M6+N6+O6+P6+Q6)/5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="AB6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>107</v>
       </c>
@@ -5185,19 +5251,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:H7" si="2">E6-$I$12</f>
+        <f t="shared" ref="E7:H7" si="4">E6-$I$12</f>
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -5209,8 +5275,28 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="AB7">
+        <f>M9-$S$9</f>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" ref="AC7:AF7" si="5">N9-$S$9</f>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>108</v>
       </c>
@@ -5219,19 +5305,19 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ref="E8:H8" si="3">E7*E7</f>
+        <f t="shared" ref="E8:H8" si="6">E7*E7</f>
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -5243,8 +5329,14 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="S8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="3:32" x14ac:dyDescent="0.3">
       <c r="H9" t="s">
         <v>109</v>
       </c>
@@ -5256,30 +5348,50 @@
         <v>0</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" ref="N9:Q9" si="4">N7-N8</f>
+        <f t="shared" ref="N9:Q9" si="7">N7-N8</f>
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="S9" s="19">
+      <c r="S9" s="13">
         <f>(M9+N9+O9+P9+Q9)/5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="AB9">
+        <f>AB7*AB7</f>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" ref="AC9:AF9" si="8">AC7*AC7</f>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>110</v>
       </c>
@@ -5307,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>113</v>
       </c>
@@ -5322,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>114</v>
       </c>
@@ -5337,7 +5449,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>115</v>
       </c>
@@ -5352,35 +5464,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C24" t="e">
         <f>(SIN(0.5*(N12+D14)))/(SIN(0.5*D14))</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="E24" t="e">
+        <f>(SIN(0.5*(P12+F14)))/(SIN(0.5*F14))</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O24" t="s">
         <v>129</v>
       </c>
       <c r="P24">
-        <f>(M6+N6+O6+P6+Q6)/5</f>
+        <f>SQRT((1/(Q3*(Q3-1)))*(AB5+AC5+AD5+AE5+AF5))</f>
         <v>0</v>
       </c>
       <c r="Q24" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <f>P24*0.01745329</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
       <c r="O25" t="s">
         <v>130</v>
       </c>
       <c r="P25">
-        <f>(M9+N9+O9+P9+Q9)/5</f>
+        <f>SQRT((1/(Q3*(Q3-1)))*(AB9+AC9+AD9+AE9+AF9))</f>
         <v>0</v>
       </c>
       <c r="Q25" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <f>P25*0.01745329</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>124</v>
       </c>
@@ -5388,19 +5520,19 @@
         <v>132</v>
       </c>
       <c r="P28">
-        <f>SQRT((1/4)*(P24*P24)+(1/4)*(P25*P25))</f>
+        <f>SQRT((1/4)*(R24*R24)+(1/4)*(R25*R25))</f>
         <v>0</v>
       </c>
       <c r="R28" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="15:16" x14ac:dyDescent="0.3">
       <c r="O34" t="s">
         <v>133</v>
       </c>

--- a/LabFizyka/cw3 cw0 cw 4, cw 5, cw1, cw2fizyka.xlsx
+++ b/LabFizyka/cw3 cw0 cw 4, cw 5, cw1, cw2fizyka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmrm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w71377\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F4602B-6048-4EBC-A179-DC85DC00CC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9DA0EE-05C3-4F2D-8BF0-692D50ECFCAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{07698564-2BCD-4C08-A4D3-7614F053D8E5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="5" xr2:uid="{07698564-2BCD-4C08-A4D3-7614F053D8E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Cw0" sheetId="2" r:id="rId1"/>
@@ -25,17 +25,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -464,7 +453,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2726,9 +2715,9 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -2745,7 +2734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2771,7 +2760,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:19">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2795,7 +2784,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:19">
       <c r="B5">
         <v>3</v>
       </c>
@@ -2815,7 +2804,7 @@
         <v>2.5600000000000005</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19">
       <c r="B6">
         <v>4</v>
       </c>
@@ -2835,7 +2824,7 @@
         <v>0.3600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19">
       <c r="B7">
         <v>5</v>
       </c>
@@ -2855,7 +2844,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19">
       <c r="B8">
         <v>6</v>
       </c>
@@ -2875,7 +2864,7 @@
         <v>6.7600000000000007</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19">
       <c r="B9">
         <v>7</v>
       </c>
@@ -2895,7 +2884,7 @@
         <v>1.9599999999999997</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19">
       <c r="B10">
         <v>8</v>
       </c>
@@ -2918,7 +2907,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19">
       <c r="B11">
         <v>9</v>
       </c>
@@ -2938,7 +2927,7 @@
         <v>0.15999999999999992</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19">
       <c r="B12">
         <v>10</v>
       </c>
@@ -2958,7 +2947,7 @@
         <v>1.9599999999999997</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19">
       <c r="E13" t="s">
         <v>27</v>
       </c>
@@ -2967,7 +2956,7 @@
         <v>22.400000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19">
       <c r="E14" t="s">
         <v>28</v>
       </c>
@@ -2980,17 +2969,17 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13">
       <c r="C17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13">
       <c r="C18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13">
       <c r="C20" t="s">
         <v>30</v>
       </c>
@@ -2998,7 +2987,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13">
       <c r="D21" t="s">
         <v>36</v>
       </c>
@@ -3010,7 +2999,7 @@
         <v>2.3904999999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13">
       <c r="C22" t="s">
         <v>34</v>
       </c>
@@ -3018,7 +3007,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13">
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -3027,12 +3016,12 @@
         <v>1.1259999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13">
       <c r="B25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13">
       <c r="B28" t="s">
         <v>32</v>
       </c>
@@ -3045,7 +3034,7 @@
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13">
       <c r="C29">
         <v>5.8000000000000003E-2</v>
       </c>
@@ -3054,7 +3043,7 @@
         <v>3.4641016151377544</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13">
       <c r="E30">
         <f>0.1/E29</f>
         <v>2.8867513459481291E-2</v>
@@ -3077,12 +3066,12 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:25">
       <c r="E5" t="s">
         <v>0</v>
       </c>
@@ -3114,7 +3103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:25">
       <c r="E6" t="s">
         <v>8</v>
       </c>
@@ -3149,7 +3138,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:25">
       <c r="E7">
         <v>900</v>
       </c>
@@ -3206,7 +3195,7 @@
         <v>30555608.581911124</v>
       </c>
     </row>
-    <row r="8" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:25">
       <c r="E8">
         <v>900</v>
       </c>
@@ -3263,7 +3252,7 @@
         <v>4825320.2845155653</v>
       </c>
     </row>
-    <row r="9" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:25">
       <c r="E9">
         <v>900</v>
       </c>
@@ -3320,7 +3309,7 @@
         <v>21213.041002265622</v>
       </c>
     </row>
-    <row r="10" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:25">
       <c r="E10">
         <v>900</v>
       </c>
@@ -3377,7 +3366,7 @@
         <v>758298.47209725645</v>
       </c>
     </row>
-    <row r="11" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:25">
       <c r="E11">
         <v>900</v>
       </c>
@@ -3434,7 +3423,7 @@
         <v>9513815.9775250498</v>
       </c>
     </row>
-    <row r="12" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:25">
       <c r="E12">
         <v>900</v>
       </c>
@@ -3491,7 +3480,7 @@
         <v>1569936.5539540569</v>
       </c>
     </row>
-    <row r="13" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:25">
       <c r="E13">
         <v>900</v>
       </c>
@@ -3548,18 +3537,18 @@
         <v>7085174.1699057044</v>
       </c>
     </row>
-    <row r="28" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:25">
       <c r="Y28">
         <f>(N28-$E$33)^2</f>
         <v>30098144.025008153</v>
       </c>
     </row>
-    <row r="29" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:25">
       <c r="L29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:25">
       <c r="L30">
         <v>7</v>
       </c>
@@ -3571,13 +3560,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:25">
       <c r="Y31">
         <f>SUM(Y7:Y28)</f>
         <v>84427511.105919182</v>
       </c>
     </row>
-    <row r="32" spans="5:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:25">
       <c r="E32" t="s">
         <v>16</v>
       </c>
@@ -3589,7 +3578,7 @@
         <v>2010178.8358552186</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:6">
       <c r="E33">
         <f>AVERAGE(N7:N28)</f>
         <v>5486.1775422426999</v>
@@ -3612,17 +3601,17 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:22">
       <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
@@ -3651,7 +3640,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:22">
       <c r="C5" s="2">
         <v>1</v>
       </c>
@@ -3685,7 +3674,7 @@
         <v>100.0000000009436</v>
       </c>
     </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:22">
       <c r="C6" s="2">
         <v>2</v>
       </c>
@@ -3713,7 +3702,7 @@
         <v>99.999999999167812</v>
       </c>
     </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:22">
       <c r="C7" s="2">
         <v>3</v>
       </c>
@@ -3741,7 +3730,7 @@
         <v>100.0000000009436</v>
       </c>
     </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:22">
       <c r="C8" s="2">
         <v>4</v>
       </c>
@@ -3769,7 +3758,7 @@
         <v>99.999999999167812</v>
       </c>
     </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:22">
       <c r="C9" s="17" t="s">
         <v>57</v>
       </c>
@@ -3779,7 +3768,7 @@
       <c r="G9" s="18"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:22">
       <c r="C10" s="2">
         <v>5</v>
       </c>
@@ -3809,7 +3798,7 @@
         <v>100.00000000087539</v>
       </c>
     </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:22">
       <c r="C11" s="2">
         <v>6</v>
       </c>
@@ -3837,7 +3826,7 @@
         <v>99.999999999010925</v>
       </c>
     </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:22">
       <c r="C12" s="2">
         <v>7</v>
       </c>
@@ -3865,7 +3854,7 @@
         <v>100.00000000087539</v>
       </c>
     </row>
-    <row r="13" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:22">
       <c r="C13" s="2">
         <v>8</v>
       </c>
@@ -3893,7 +3882,7 @@
         <v>99.999999999010925</v>
       </c>
     </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:22">
       <c r="C14" s="2">
         <v>9</v>
       </c>
@@ -3923,7 +3912,7 @@
         <v>1877.7777777803674</v>
       </c>
     </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:22">
       <c r="C15" s="2">
         <v>10</v>
       </c>
@@ -3951,7 +3940,7 @@
         <v>1877.7777777744902</v>
       </c>
     </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:22">
       <c r="C16" s="2">
         <v>11</v>
       </c>
@@ -3979,7 +3968,7 @@
         <v>1877.7777777803674</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:22">
       <c r="C17" s="2">
         <v>12</v>
       </c>
@@ -4007,7 +3996,7 @@
         <v>1877.7777777744902</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:22">
       <c r="C18" s="2">
         <v>13</v>
       </c>
@@ -4037,7 +4026,7 @@
         <v>711.11111111277046</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:22">
       <c r="C19" s="2">
         <v>14</v>
       </c>
@@ -4065,7 +4054,7 @@
         <v>711.11111110898992</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:22">
       <c r="C20" s="2">
         <v>15</v>
       </c>
@@ -4093,7 +4082,7 @@
         <v>711.11111111277046</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22">
       <c r="C21" s="2">
         <v>16</v>
       </c>
@@ -4121,7 +4110,7 @@
         <v>711.11111110898992</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22">
       <c r="C22" s="2">
         <v>17</v>
       </c>
@@ -4151,7 +4140,7 @@
         <v>4899.9999999921374</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22">
       <c r="C23" s="2">
         <v>18</v>
       </c>
@@ -4179,7 +4168,7 @@
         <v>4900.0000000070586</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22">
       <c r="C24" s="2">
         <v>19</v>
       </c>
@@ -4207,7 +4196,7 @@
         <v>4899.9999999921374</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22">
       <c r="C25" s="2">
         <v>20</v>
       </c>
@@ -4235,7 +4224,7 @@
         <v>4900.0000000070586</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:22">
       <c r="U27" t="s">
         <v>52</v>
       </c>
@@ -4243,7 +4232,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:22">
       <c r="U28" t="s">
         <v>53</v>
       </c>
@@ -4252,7 +4241,7 @@
         <v>30755.555555551622</v>
       </c>
     </row>
-    <row r="29" spans="2:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:22" ht="18">
       <c r="E29" s="3" t="s">
         <v>48</v>
       </c>
@@ -4261,18 +4250,18 @@
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:22">
       <c r="E30">
         <f>SQRT((V28/U29))</f>
         <v>8.9964255409917957</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:22">
       <c r="B32">
         <v>0.95</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="18">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -4291,13 +4280,13 @@
         <v>18.829518657295829</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="C37">
         <f>B33*E30</f>
         <v>18.829518657295829</v>
       </c>
     </row>
-    <row r="86" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:9">
       <c r="F86" s="1">
         <v>1.472</v>
       </c>
@@ -4334,22 +4323,22 @@
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:22">
       <c r="V2" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:22" ht="15">
       <c r="C5" s="6" t="s">
         <v>58</v>
       </c>
@@ -4372,7 +4361,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="3:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:22" ht="18">
       <c r="C6" s="5" t="s">
         <v>64</v>
       </c>
@@ -4408,7 +4397,7 @@
         <v>0.11219445521836882</v>
       </c>
     </row>
-    <row r="7" spans="3:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:22" ht="15">
       <c r="C7" s="5" t="s">
         <v>65</v>
       </c>
@@ -4430,10 +4419,10 @@
       </c>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="3:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:22" ht="15">
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="3:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:22" ht="15">
       <c r="C9" s="6" t="s">
         <v>66</v>
       </c>
@@ -4454,7 +4443,7 @@
       </c>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="3:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:22" ht="18">
       <c r="C10" s="5" t="s">
         <v>64</v>
       </c>
@@ -4487,7 +4476,7 @@
         <v>0.205053014757067</v>
       </c>
     </row>
-    <row r="11" spans="3:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:22" ht="15">
       <c r="C11" s="5" t="s">
         <v>65</v>
       </c>
@@ -4506,10 +4495,10 @@
       </c>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="3:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:22" ht="15">
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="3:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:22" ht="15">
       <c r="C13" s="6" t="s">
         <v>69</v>
       </c>
@@ -4524,7 +4513,7 @@
       </c>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="3:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:22" ht="18">
       <c r="C14" s="5" t="s">
         <v>64</v>
       </c>
@@ -4550,7 +4539,7 @@
         <v>0.15146666666666669</v>
       </c>
     </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:22">
       <c r="C15" s="5" t="s">
         <v>65</v>
       </c>
@@ -4561,7 +4550,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5">
       <c r="C22" t="s">
         <v>75</v>
       </c>
@@ -4569,7 +4558,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5">
       <c r="C23">
         <f xml:space="preserve"> H6 * ((E7/E6)+(F7/F6)+(G7/G6))</f>
         <v>5.1004999999999995E-2</v>
@@ -4579,7 +4568,7 @@
         <v>0.14314238715000002</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:5">
       <c r="C27" t="s">
         <v>72</v>
       </c>
@@ -4590,7 +4579,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5">
       <c r="C28">
         <f xml:space="preserve"> J6 * ((D7/D6) + (H7/H6))</f>
         <v>0.11219445521836882</v>
@@ -4620,24 +4609,24 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
-    <col min="15" max="15" width="17.44140625" customWidth="1"/>
-    <col min="18" max="18" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="15" max="15" width="17.5" customWidth="1"/>
+    <col min="18" max="18" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:33">
       <c r="AG2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="4:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:33">
       <c r="D6" s="1" t="s">
         <v>83</v>
       </c>
@@ -4663,7 +4652,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="4:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:33">
       <c r="D7" s="9">
         <v>4.99</v>
       </c>
@@ -4699,7 +4688,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="4:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:33">
       <c r="D8" s="9">
         <v>5.58</v>
       </c>
@@ -4735,13 +4724,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="4:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:33">
       <c r="R9">
         <f>(D8*E8)/(D8+E8)</f>
         <v>1.3135708413263907</v>
       </c>
     </row>
-    <row r="13" spans="4:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:33">
       <c r="D13" s="1" t="s">
         <v>89</v>
       </c>
@@ -4749,7 +4738,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="4:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:33">
       <c r="D14" s="1" t="s">
         <v>90</v>
       </c>
@@ -4757,7 +4746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="4:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:33" ht="18.75" customHeight="1">
       <c r="D16" s="1" t="s">
         <v>86</v>
       </c>
@@ -4771,7 +4760,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:15" ht="19.5" customHeight="1">
       <c r="D17" s="1">
         <v>1</v>
       </c>
@@ -4793,7 +4782,7 @@
         <v>1.6100000000000001E-4</v>
       </c>
     </row>
-    <row r="18" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:15" ht="19.5" customHeight="1">
       <c r="D18" s="1">
         <v>2</v>
       </c>
@@ -4808,7 +4797,7 @@
         <v>17209.302325581397</v>
       </c>
     </row>
-    <row r="19" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:15" ht="19.5" customHeight="1">
       <c r="D19" s="1">
         <v>3</v>
       </c>
@@ -4823,7 +4812,7 @@
         <v>17084.870848708488</v>
       </c>
     </row>
-    <row r="20" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:15" ht="19.5" customHeight="1">
       <c r="D20" s="1">
         <v>4</v>
       </c>
@@ -4838,7 +4827,7 @@
         <v>17289.719626168226</v>
       </c>
     </row>
-    <row r="21" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:15" ht="19.5" customHeight="1">
       <c r="D21" s="1">
         <v>5</v>
       </c>
@@ -4853,7 +4842,7 @@
         <v>17260.638297872341</v>
       </c>
     </row>
-    <row r="22" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:15" ht="19.5" customHeight="1">
       <c r="D22" s="1">
         <v>6</v>
       </c>
@@ -4868,7 +4857,7 @@
         <v>17435.294117647059</v>
       </c>
     </row>
-    <row r="23" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:15" ht="19.5" customHeight="1">
       <c r="D23" s="1">
         <v>7</v>
       </c>
@@ -4883,7 +4872,7 @@
         <v>17282.157676348546</v>
       </c>
     </row>
-    <row r="24" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:15" ht="19.5" customHeight="1">
       <c r="D24" s="1">
         <v>8</v>
       </c>
@@ -4898,7 +4887,7 @@
         <v>17276.119402985074</v>
       </c>
     </row>
-    <row r="25" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:15" ht="19.5" customHeight="1">
       <c r="D25" s="1">
         <v>9</v>
       </c>
@@ -4913,7 +4902,7 @@
         <v>17234.401349072516</v>
       </c>
     </row>
-    <row r="26" spans="4:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:15" ht="19.5" customHeight="1">
       <c r="D26" s="1">
         <v>10</v>
       </c>
@@ -4928,7 +4917,7 @@
         <v>17293.93468118196</v>
       </c>
     </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:15">
       <c r="D32" s="1" t="s">
         <v>93</v>
       </c>
@@ -4937,7 +4926,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9">
       <c r="B33" t="s">
         <v>95</v>
       </c>
@@ -4960,7 +4949,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9">
       <c r="B34" t="s">
         <v>97</v>
       </c>
@@ -4985,7 +4974,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9">
       <c r="B35" t="s">
         <v>98</v>
       </c>
@@ -5017,24 +5006,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2FB2B5-01A0-4EB1-9F5D-8D6D788ED658}">
-  <dimension ref="C2:AF34"/>
+  <dimension ref="B2:AF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I6" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:32">
       <c r="AB2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:32">
       <c r="C3" s="1" t="s">
         <v>103</v>
       </c>
@@ -5077,42 +5066,62 @@
       </c>
       <c r="AB3">
         <f>M6-$S$6</f>
-        <v>0</v>
+        <v>2.2000000000000028</v>
       </c>
       <c r="AC3">
         <f t="shared" ref="AC3:AE3" si="0">N6-$S$6</f>
-        <v>0</v>
+        <v>19.200000000000003</v>
       </c>
       <c r="AD3">
         <f>O6-$S$6</f>
-        <v>0</v>
+        <v>-6.7999999999999972</v>
       </c>
       <c r="AE3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-29.799999999999997</v>
       </c>
       <c r="AF3">
         <f>Q6-$S$6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="3:32" x14ac:dyDescent="0.3">
+        <v>15.200000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="3:32">
       <c r="C4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="D4" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1">
+        <v>42</v>
+      </c>
       <c r="L4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="M4" s="1">
+        <v>124</v>
+      </c>
+      <c r="N4" s="1">
+        <v>81</v>
+      </c>
+      <c r="O4" s="1">
+        <v>75</v>
+      </c>
+      <c r="P4" s="1">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>87</v>
+      </c>
       <c r="R4" s="1"/>
       <c r="W4" t="s">
         <v>126</v>
@@ -5131,23 +5140,43 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:32">
       <c r="C5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="D5" s="1">
+        <v>162</v>
+      </c>
+      <c r="E5" s="1">
+        <v>140</v>
+      </c>
+      <c r="F5" s="1">
+        <v>158</v>
+      </c>
+      <c r="G5" s="1">
+        <v>151.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>161</v>
+      </c>
       <c r="L5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="M5" s="1">
+        <v>86</v>
+      </c>
+      <c r="N5" s="1">
+        <v>136</v>
+      </c>
+      <c r="O5" s="1">
+        <v>104</v>
+      </c>
+      <c r="P5" s="1">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>138</v>
+      </c>
       <c r="R5" s="1"/>
       <c r="W5" t="s">
         <v>127</v>
@@ -5165,169 +5194,189 @@
       </c>
       <c r="AB5">
         <f>AB3*AB3</f>
-        <v>0</v>
+        <v>4.8400000000000123</v>
       </c>
       <c r="AC5">
         <f t="shared" ref="AC5:AF5" si="1">AC3*AC3</f>
-        <v>0</v>
+        <v>368.6400000000001</v>
       </c>
       <c r="AD5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>46.239999999999959</v>
       </c>
       <c r="AE5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>888.03999999999985</v>
       </c>
       <c r="AF5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="3:32" x14ac:dyDescent="0.3">
+        <v>231.04000000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="3:32">
       <c r="C6" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="1">
         <f>D5-D4</f>
-        <v>0</v>
+        <v>119.5</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ref="E6:H6" si="2">E5-E4</f>
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>119.5</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>117</v>
       </c>
       <c r="M6" s="1">
         <f>M4-M5</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" ref="N6:Q6" si="3">N4-N5</f>
-        <v>0</v>
+        <f>N5-N4</f>
+        <v>55</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>O5-O4</f>
+        <v>29</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>P5-P4</f>
+        <v>6</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>Q5-Q4</f>
+        <v>51</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>121</v>
       </c>
       <c r="S6" s="13">
         <f>(M6+N6+O6+P6+Q6)/5</f>
-        <v>0</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="AB6" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:32">
       <c r="C7" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D7" s="1">
         <f>D6-$I$12</f>
-        <v>0</v>
+        <v>-1.9000000000000057</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:H7" si="4">E6-$I$12</f>
-        <v>0</v>
+        <f t="shared" ref="E7:H7" si="3">E6-$I$12</f>
+        <v>7.5999999999999943</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.4000000000000057</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.9000000000000057</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-2.4000000000000057</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="M7" s="1">
+        <v>222</v>
+      </c>
+      <c r="N7" s="1">
+        <v>103</v>
+      </c>
+      <c r="O7" s="1">
+        <v>189</v>
+      </c>
+      <c r="P7" s="1">
+        <v>55</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>48.5</v>
+      </c>
       <c r="R7" s="1"/>
       <c r="AB7">
         <f>M9-$S$9</f>
-        <v>0</v>
+        <v>-51.3</v>
       </c>
       <c r="AC7">
-        <f t="shared" ref="AC7:AF7" si="5">N9-$S$9</f>
-        <v>0</v>
+        <f t="shared" ref="AC7:AF7" si="4">N9-$S$9</f>
+        <v>22.200000000000003</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8.7000000000000028</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5.2000000000000028</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:32" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>15.200000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="3:32">
       <c r="C8" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D8" s="1">
         <f>D7*D7</f>
-        <v>0</v>
+        <v>3.6100000000000216</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ref="E8:H8" si="6">E7*E7</f>
-        <v>0</v>
+        <f t="shared" ref="E8:H8" si="5">E7*E7</f>
+        <v>57.759999999999913</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1.960000000000016</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>3.6100000000000216</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>5.7600000000000273</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="M8" s="1">
+        <v>245</v>
+      </c>
+      <c r="N8" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="O8" s="1">
+        <v>106</v>
+      </c>
+      <c r="P8" s="1">
+        <v>134.5</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>138</v>
+      </c>
       <c r="R8" s="1"/>
       <c r="S8" t="s">
         <v>138</v>
@@ -5336,7 +5385,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="3:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:32">
       <c r="H9" t="s">
         <v>109</v>
       </c>
@@ -5344,127 +5393,167 @@
         <v>120</v>
       </c>
       <c r="M9" s="1">
-        <f>M7-M8</f>
-        <v>0</v>
+        <f>M8-M7</f>
+        <v>23</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" ref="N9:Q9" si="7">N7-N8</f>
-        <v>0</v>
+        <f>N7-N8</f>
+        <v>96.5</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>O7-O8</f>
+        <v>83</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="N9:Q9" si="6">P8-P7</f>
+        <v>79.5</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>89.5</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>122</v>
       </c>
       <c r="S9" s="13">
         <f>(M9+N9+O9+P9+Q9)/5</f>
-        <v>0</v>
+        <v>74.3</v>
       </c>
       <c r="AB9">
         <f>AB7*AB7</f>
-        <v>0</v>
+        <v>2631.6899999999996</v>
       </c>
       <c r="AC9">
-        <f t="shared" ref="AC9:AF9" si="8">AC7*AC7</f>
-        <v>0</v>
+        <f t="shared" ref="AC9:AF9" si="7">AC7*AC7</f>
+        <v>492.84000000000015</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>75.690000000000055</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>27.040000000000031</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:32" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>231.04000000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="3:32">
       <c r="C12" t="s">
         <v>110</v>
       </c>
+      <c r="D12">
+        <f>I12</f>
+        <v>121.4</v>
+      </c>
       <c r="E12" t="s">
         <v>111</v>
       </c>
+      <c r="F12">
+        <f>I12*57.2957795</f>
+        <v>6955.7076313000007</v>
+      </c>
       <c r="G12" t="s">
         <v>112</v>
       </c>
       <c r="I12">
         <f>(1/H3)*(H6+D6+E6+F6+G6)</f>
-        <v>0</v>
+        <v>121.4</v>
       </c>
       <c r="L12" t="s">
         <v>123</v>
       </c>
+      <c r="N12">
+        <f>S12</f>
+        <v>55.05</v>
+      </c>
       <c r="O12" t="s">
         <v>111</v>
       </c>
+      <c r="P12">
+        <f>S12*57.2957795</f>
+        <v>3154.1326614750001</v>
+      </c>
       <c r="Q12" t="s">
         <v>112</v>
       </c>
       <c r="S12">
         <f>1/2*(S6+S9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:32" x14ac:dyDescent="0.3">
+        <v>55.05</v>
+      </c>
+    </row>
+    <row r="13" spans="3:32">
       <c r="C13" t="s">
         <v>113</v>
       </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D15" si="8">I13</f>
+        <v>1.9065675964937618</v>
+      </c>
       <c r="E13" t="s">
         <v>111</v>
       </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F15" si="9">I13*57.2957795</f>
+        <v>109.23827661055155</v>
+      </c>
       <c r="G13" t="s">
         <v>112</v>
       </c>
       <c r="I13">
         <f>SQRT((1/(H3*(H3-1)))*(D8+E8+F8+G8+H8))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:32" x14ac:dyDescent="0.3">
+        <v>1.9065675964937618</v>
+      </c>
+    </row>
+    <row r="14" spans="3:32">
       <c r="C14" t="s">
         <v>114</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="8"/>
+        <v>58.599999999999994</v>
+      </c>
       <c r="E14" t="s">
         <v>111</v>
       </c>
+      <c r="F14">
+        <f t="shared" si="9"/>
+        <v>3357.5326786999999</v>
+      </c>
       <c r="G14" t="s">
         <v>112</v>
       </c>
       <c r="I14">
         <f>180-I12</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="3:32" x14ac:dyDescent="0.3">
+        <v>58.599999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="3:32">
       <c r="C15" t="s">
         <v>115</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="8"/>
+        <v>1.9065675964937618</v>
+      </c>
       <c r="E15" t="s">
         <v>111</v>
       </c>
+      <c r="F15">
+        <f t="shared" si="9"/>
+        <v>109.23827661055155</v>
+      </c>
       <c r="G15" t="s">
         <v>112</v>
       </c>
       <c r="I15">
         <f>SQRT((1/(H3*(H3-1)))*(D8+E8+F8+G8+H8))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
+        <v>1.9065675964937618</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
       <c r="C23" t="s">
         <v>111</v>
       </c>
@@ -5472,73 +5561,71 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C24" t="e">
+    <row r="24" spans="2:18">
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24">
         <f>(SIN(0.5*(N12+D14)))/(SIN(0.5*D14))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" t="e">
+        <v>-0.3190757870212248</v>
+      </c>
+      <c r="D24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24">
         <f>(SIN(0.5*(P12+F14)))/(SIN(0.5*F14))</f>
-        <v>#DIV/0!</v>
+        <v>0.99410677355494381</v>
       </c>
       <c r="O24" t="s">
         <v>129</v>
       </c>
       <c r="P24">
         <f>SQRT((1/(Q3*(Q3-1)))*(AB5+AC5+AD5+AE5+AF5))</f>
-        <v>0</v>
+        <v>8.7715449038353572</v>
       </c>
       <c r="Q24" t="s">
         <v>131</v>
       </c>
       <c r="R24">
         <f>P24*0.01745329</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
+        <v>0.15309231695466061</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
       <c r="O25" t="s">
         <v>130</v>
       </c>
       <c r="P25">
         <f>SQRT((1/(Q3*(Q3-1)))*(AB9+AC9+AD9+AE9+AF9))</f>
-        <v>0</v>
+        <v>13.149714825805159</v>
       </c>
       <c r="Q25" t="s">
         <v>131</v>
       </c>
       <c r="R25">
         <f>P25*0.01745329</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>124</v>
-      </c>
+        <v>0.22950578627207691</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
       <c r="O28" t="s">
         <v>132</v>
       </c>
       <c r="P28">
         <f>SQRT((1/4)*(R24*R24)+(1/4)*(R25*R25))</f>
-        <v>0</v>
+        <v>0.13794035254677156</v>
       </c>
       <c r="R28" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="15:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="15:16">
       <c r="O34" t="s">
         <v>133</v>
       </c>
-      <c r="P34" t="e">
+      <c r="P34">
         <f>(ABS((SIN(P12/2))/(2*(SIN(F14/2)^2))))*(ABS(F15))+(ABS((COS((F14+P12)/2))/(2*SIN(F14/2))))*(ABS(S28))</f>
-        <v>#DIV/0!</v>
+        <v>0.85963636822645562</v>
       </c>
     </row>
   </sheetData>

--- a/LabFizyka/cw3 cw0 cw 4, cw 5, cw1, cw2fizyka.xlsx
+++ b/LabFizyka/cw3 cw0 cw 4, cw 5, cw1, cw2fizyka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w71377\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9DA0EE-05C3-4F2D-8BF0-692D50ECFCAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B879693-9904-43B9-8F1B-524421972057}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="5" xr2:uid="{07698564-2BCD-4C08-A4D3-7614F053D8E5}"/>
   </bookViews>
@@ -5008,8 +5008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2FB2B5-01A0-4EB1-9F5D-8D6D788ED658}">
   <dimension ref="B2:AF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5066,23 +5066,23 @@
       </c>
       <c r="AB3">
         <f>M6-$S$6</f>
-        <v>2.2000000000000028</v>
+        <v>3</v>
       </c>
       <c r="AC3">
         <f t="shared" ref="AC3:AE3" si="0">N6-$S$6</f>
-        <v>19.200000000000003</v>
+        <v>20</v>
       </c>
       <c r="AD3">
         <f>O6-$S$6</f>
-        <v>-6.7999999999999972</v>
+        <v>-6</v>
       </c>
       <c r="AE3">
         <f t="shared" si="0"/>
-        <v>-29.799999999999997</v>
+        <v>-33</v>
       </c>
       <c r="AF3">
         <f>Q6-$S$6</f>
-        <v>15.200000000000003</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="3:32">
@@ -5172,7 +5172,7 @@
         <v>104</v>
       </c>
       <c r="P5" s="1">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="1">
         <v>138</v>
@@ -5194,23 +5194,23 @@
       </c>
       <c r="AB5">
         <f>AB3*AB3</f>
-        <v>4.8400000000000123</v>
+        <v>9</v>
       </c>
       <c r="AC5">
         <f t="shared" ref="AC5:AF5" si="1">AC3*AC3</f>
-        <v>368.6400000000001</v>
+        <v>400</v>
       </c>
       <c r="AD5">
         <f t="shared" si="1"/>
-        <v>46.239999999999959</v>
+        <v>36</v>
       </c>
       <c r="AE5">
         <f t="shared" si="1"/>
-        <v>888.03999999999985</v>
+        <v>1089</v>
       </c>
       <c r="AF5">
         <f t="shared" si="1"/>
-        <v>231.04000000000008</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="3:32">
@@ -5253,8 +5253,8 @@
         <v>29</v>
       </c>
       <c r="P6" s="1">
-        <f>P5-P4</f>
-        <v>6</v>
+        <f>P4-P5</f>
+        <v>2</v>
       </c>
       <c r="Q6" s="1">
         <f>Q5-Q4</f>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="S6" s="13">
         <f>(M6+N6+O6+P6+Q6)/5</f>
-        <v>35.799999999999997</v>
+        <v>35</v>
       </c>
       <c r="AB6" t="s">
         <v>136</v>
@@ -5299,7 +5299,7 @@
         <v>118</v>
       </c>
       <c r="M7" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N7" s="1">
         <v>103</v>
@@ -5316,23 +5316,23 @@
       <c r="R7" s="1"/>
       <c r="AB7">
         <f>M9-$S$9</f>
-        <v>-51.3</v>
+        <v>-47.900000000000006</v>
       </c>
       <c r="AC7">
         <f t="shared" ref="AC7:AF7" si="4">N9-$S$9</f>
-        <v>22.200000000000003</v>
+        <v>18.599999999999994</v>
       </c>
       <c r="AD7">
         <f t="shared" si="4"/>
-        <v>8.7000000000000028</v>
+        <v>13.099999999999994</v>
       </c>
       <c r="AE7">
         <f t="shared" si="4"/>
-        <v>5.2000000000000028</v>
+        <v>9.5999999999999943</v>
       </c>
       <c r="AF7">
         <f t="shared" si="4"/>
-        <v>15.200000000000003</v>
+        <v>6.5999999999999943</v>
       </c>
     </row>
     <row r="8" spans="3:32">
@@ -5366,7 +5366,7 @@
         <v>245</v>
       </c>
       <c r="N8" s="1">
-        <v>6.5</v>
+        <v>14.5</v>
       </c>
       <c r="O8" s="1">
         <v>106</v>
@@ -5375,7 +5375,7 @@
         <v>134.5</v>
       </c>
       <c r="Q8" s="1">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" t="s">
@@ -5394,11 +5394,11 @@
       </c>
       <c r="M9" s="1">
         <f>M8-M7</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N9" s="1">
         <f>N7-N8</f>
-        <v>96.5</v>
+        <v>88.5</v>
       </c>
       <c r="O9" s="1">
         <f>O7-O8</f>
@@ -5410,34 +5410,34 @@
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="6"/>
-        <v>89.5</v>
+        <v>76.5</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>122</v>
       </c>
       <c r="S9" s="13">
         <f>(M9+N9+O9+P9+Q9)/5</f>
-        <v>74.3</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="AB9">
         <f>AB7*AB7</f>
-        <v>2631.6899999999996</v>
+        <v>2294.4100000000008</v>
       </c>
       <c r="AC9">
         <f t="shared" ref="AC9:AF9" si="7">AC7*AC7</f>
-        <v>492.84000000000015</v>
+        <v>345.95999999999981</v>
       </c>
       <c r="AD9">
         <f t="shared" si="7"/>
-        <v>75.690000000000055</v>
+        <v>171.60999999999984</v>
       </c>
       <c r="AE9">
         <f t="shared" si="7"/>
-        <v>27.040000000000031</v>
+        <v>92.159999999999897</v>
       </c>
       <c r="AF9">
         <f t="shared" si="7"/>
-        <v>231.04000000000008</v>
+        <v>43.559999999999924</v>
       </c>
     </row>
     <row r="12" spans="3:32">
@@ -5467,21 +5467,21 @@
       </c>
       <c r="N12">
         <f>S12</f>
-        <v>55.05</v>
+        <v>52.45</v>
       </c>
       <c r="O12" t="s">
         <v>111</v>
       </c>
       <c r="P12">
         <f>S12*57.2957795</f>
-        <v>3154.1326614750001</v>
+        <v>3005.1636347750004</v>
       </c>
       <c r="Q12" t="s">
         <v>112</v>
       </c>
       <c r="S12">
         <f>1/2*(S6+S9)</f>
-        <v>55.05</v>
+        <v>52.45</v>
       </c>
     </row>
     <row r="13" spans="3:32">
@@ -5489,14 +5489,14 @@
         <v>113</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D15" si="8">I13</f>
+        <f>I13</f>
         <v>1.9065675964937618</v>
       </c>
       <c r="E13" t="s">
         <v>111</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F15" si="9">I13*57.2957795</f>
+        <f t="shared" ref="F13:F15" si="8">I13*57.2957795</f>
         <v>109.23827661055155</v>
       </c>
       <c r="G13" t="s">
@@ -5512,14 +5512,14 @@
         <v>114</v>
       </c>
       <c r="D14">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D13:D15" si="9">I14</f>
         <v>58.599999999999994</v>
       </c>
       <c r="E14" t="s">
         <v>111</v>
       </c>
       <c r="F14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3357.5326786999999</v>
       </c>
       <c r="G14" t="s">
@@ -5535,14 +5535,14 @@
         <v>115</v>
       </c>
       <c r="D15">
-        <f t="shared" si="8"/>
+        <f>I15</f>
         <v>1.9065675964937618</v>
       </c>
       <c r="E15" t="s">
         <v>111</v>
       </c>
       <c r="F15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>109.23827661055155</v>
       </c>
       <c r="G15" t="s">
@@ -5567,28 +5567,28 @@
       </c>
       <c r="C24">
         <f>(SIN(0.5*(N12+D14)))/(SIN(0.5*D14))</f>
-        <v>-0.3190757870212248</v>
+        <v>0.9987861532941521</v>
       </c>
       <c r="D24" t="s">
         <v>124</v>
       </c>
       <c r="E24">
         <f>(SIN(0.5*(P12+F14)))/(SIN(0.5*F14))</f>
-        <v>0.99410677355494381</v>
+        <v>0.96640358396431891</v>
       </c>
       <c r="O24" t="s">
         <v>129</v>
       </c>
       <c r="P24">
         <f>SQRT((1/(Q3*(Q3-1)))*(AB5+AC5+AD5+AE5+AF5))</f>
-        <v>8.7715449038353572</v>
+        <v>9.4604439642122511</v>
       </c>
       <c r="Q24" t="s">
         <v>131</v>
       </c>
       <c r="R24">
         <f>P24*0.01745329</f>
-        <v>0.15309231695466061</v>
+        <v>0.16511587203614603</v>
       </c>
     </row>
     <row r="25" spans="2:18">
@@ -5597,14 +5597,14 @@
       </c>
       <c r="P25">
         <f>SQRT((1/(Q3*(Q3-1)))*(AB9+AC9+AD9+AE9+AF9))</f>
-        <v>13.149714825805159</v>
+        <v>12.140222403234629</v>
       </c>
       <c r="Q25" t="s">
         <v>131</v>
       </c>
       <c r="R25">
         <f>P25*0.01745329</f>
-        <v>0.22950578627207691</v>
+        <v>0.21188682226815092</v>
       </c>
     </row>
     <row r="28" spans="2:18">
@@ -5613,10 +5613,10 @@
       </c>
       <c r="P28">
         <f>SQRT((1/4)*(R24*R24)+(1/4)*(R25*R25))</f>
-        <v>0.13794035254677156</v>
+        <v>0.13431239392657696</v>
       </c>
       <c r="R28" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="15:16">
@@ -5624,8 +5624,8 @@
         <v>133</v>
       </c>
       <c r="P34">
-        <f>(ABS((SIN(P12/2))/(2*(SIN(F14/2)^2))))*(ABS(F15))+(ABS((COS((F14+P12)/2))/(2*SIN(F14/2))))*(ABS(S28))</f>
-        <v>0.85963636822645562</v>
+        <f>(ABS((SIN(P12/2))/(2*(SIN(F14/2)^2))))*(ABS(F15))+(ABS((COS((F14+P12)/2))/(2*SIN(F14/2))))*(ABS(P28))</f>
+        <v>51.142644523511038</v>
       </c>
     </row>
   </sheetData>
